--- a/notation__projets_nsi__p04__2024_2025.xlsx
+++ b/notation__projets_nsi__p04__2024_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\NSI\GitHub\2024_2025__p04_projet1_gp7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518A5B14-0BB4-494E-AFB7-8AFAB41A22F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE4DDE0-B178-450E-A39D-BCEAB549D508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -741,9 +741,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1095,7 +1092,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1110,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1143,7 +1140,7 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1213,7 +1210,7 @@
       <c r="I4" s="6">
         <v>17</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f>AVERAGE(B4:I4)</f>
         <v>19.625</v>
       </c>
@@ -1246,7 +1243,7 @@
       <c r="I5" s="6">
         <v>18</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f t="shared" ref="J5:J14" si="0">AVERAGE(B5:I5)</f>
         <v>19</v>
       </c>
@@ -1279,7 +1276,7 @@
       <c r="I6" s="6">
         <v>17</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1312,7 +1309,7 @@
       <c r="I7" s="6">
         <v>19</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>18.875</v>
       </c>
@@ -1345,7 +1342,7 @@
       <c r="I8" s="6">
         <v>18</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <f t="shared" si="0"/>
         <v>18.875</v>
       </c>
@@ -1378,7 +1375,7 @@
       <c r="I9" s="7">
         <v>19</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <f t="shared" si="0"/>
         <v>19.25</v>
       </c>
@@ -1395,7 +1392,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="9" t="e">
+      <c r="J10" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1428,7 +1425,7 @@
       <c r="I11" s="7">
         <v>19</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
@@ -1461,7 +1458,7 @@
       <c r="I12" s="7">
         <v>18</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
@@ -1494,7 +1491,7 @@
       <c r="I13" s="7">
         <v>18</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <f t="shared" si="0"/>
         <v>18.375</v>
       </c>
@@ -1509,15 +1506,27 @@
       <c r="C14" s="7">
         <v>20</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9">
+      <c r="D14" s="7">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7">
+        <v>19</v>
+      </c>
+      <c r="J14" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18.875</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
